--- a/medicine/Enfance/David_Almond/David_Almond.xlsx
+++ b/medicine/Enfance/David_Almond/David_Almond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Almond, né le 15 mai 1951 dans le district métropolitain de Gateshead, est un écrivain britannique, auteur de littérature d'enfance et de jeunesse.
 Il a publié plusieurs livres et a reçu de nombreux prix parmi les plus prestigieux à récompenser la littérature de jeunesse, dont la médaille Carnegie et un prix international : le prix Hans Christian Andersen catégorie Écriture.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Romans
-(en) A Kind of Heaven, 1997
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) A Kind of Heaven, 1997
 Skellig, Flammarion, coll. « Castor poche », 2000 ((en) Skellig, 1998)  (ISBN 978-2081645813)
 Le Jeu de la mort, Gallimard Jeunesse, coll. « Scripto », 2003 ((en) Kit's Wilderness, 1999)  (ISBN 978-2070543564)Prix Michael L. Printz 2001
 Ange des marais noirs, Gallimard Jeunesse, coll. « Folio Junior », 2001 ((en) Heaven Eyes, 2000)  (ISBN 978-2070544141)
@@ -532,9 +549,7 @@
 (en) The True Tale of the Monster Billy Dean, 2011
 Le Garçon qui nageait avec les piranhas, Gallimard Jeunesse, coll. « Littérature », 2015 ((en) The Boy Who Swam With Piranhas, 2012), trad. Diane Ménard  (ISBN 978-2070667857)Illustré par Oliver Jeffers
 (en) Mouse Bird Snake Wolf, 2013
-La Chanson d'Orphée, Gallimard Jeunesse, coll. « Littérature », 2018 ((en) A Song for Ella Grey, 2014), trad. Diane Ménard  (ISBN 9782075090063)
-Pièce de théâtre
-Petits Sauvages, Actes Sud, coll. « Heyoka Jeunesse », 2009 ((en) Wild Girl, Wild Boy, 2002)  (ISBN 978-2742780051)</t>
+La Chanson d'Orphée, Gallimard Jeunesse, coll. « Littérature », 2018 ((en) A Song for Ella Grey, 2014), trad. Diane Ménard  (ISBN 9782075090063)</t>
         </is>
       </c>
     </row>
@@ -559,19 +574,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pièce de théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Petits Sauvages, Actes Sud, coll. « Heyoka Jeunesse », 2009 ((en) Wild Girl, Wild Boy, 2002)  (ISBN 978-2742780051)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David_Almond</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Almond</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille Carnegie 1998 pour Skellig
  Finaliste Prix Michael L. Printz 2000 pour Skellig 
  Prix Michael L. Printz 2001 pour Le Jeu de la mort (Kit's Wilderness) 
  Prix Hans Christian Andersen catégorie Écriture 2010, pour l'ensemble de son œuvre
   Prix Sorcières 2011, catégorie Roman adolescent, pour Le Sauvage, illustré par Dave McKean
- Prix des libraires du Québec section Jeunesse 2017[1] pour Le Garçon qui nageait avec les piranhas, illustré par Oliver Jeffers
-Finaliste Médaille Carnegie 2012[2] pour Je m'appelle Mina
- Sélection pour le Prix commémoratif Astrid-Lindgren en 2019, 2020 et 2021[3].</t>
+ Prix des libraires du Québec section Jeunesse 2017 pour Le Garçon qui nageait avec les piranhas, illustré par Oliver Jeffers
+Finaliste Médaille Carnegie 2012 pour Je m'appelle Mina
+ Sélection pour le Prix commémoratif Astrid-Lindgren en 2019, 2020 et 2021.</t>
         </is>
       </c>
     </row>
